--- a/QA_reports/bug_reports/FR11_BUG REPORT_IZ.xlsx
+++ b/QA_reports/bug_reports/FR11_BUG REPORT_IZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\Bug_replase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B246A7A-7D7B-4AE0-8DB1-C4BA232CDBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812AD690-64D7-49C8-8159-B23B8001B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="3660" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="4185" windowWidth="15525" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FR11_Bug_Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Field</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>No shadow</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,7 +665,9 @@
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -798,7 +803,9 @@
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -946,7 +953,9 @@
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
